--- a/books/20-03-31Functional Math REV.xlsx
+++ b/books/20-03-31Functional Math REV.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sethterry/Desktop/sheetem/books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B49F6D-9A2B-FE42-80B7-FD13FD11105A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B68F6-7AA7-7649-831A-25EF8A23E153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43580" yWindow="2300" windowWidth="26880" windowHeight="21140" activeTab="5" xr2:uid="{CB592B7E-D657-1448-AE66-0181264CDBCF}"/>
+    <workbookView xWindow="42320" yWindow="1700" windowWidth="26880" windowHeight="21140" activeTab="6" xr2:uid="{CB592B7E-D657-1448-AE66-0181264CDBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Correct change" sheetId="12" r:id="rId1"/>
-    <sheet name="Bill Coin Tota;" sheetId="14" r:id="rId2"/>
+    <sheet name="Bill Coin Total" sheetId="14" r:id="rId2"/>
     <sheet name="Budgeting 1" sheetId="11" r:id="rId3"/>
     <sheet name="Budgeting 2" sheetId="13" r:id="rId4"/>
     <sheet name="Daily Math" sheetId="4" r:id="rId5"/>
@@ -15219,7 +15219,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -17192,7 +17192,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="91" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
